--- a/evaluation_debug.xlsx
+++ b/evaluation_debug.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,63 +686,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45649.98832516577</v>
+        <v>45654.8375134771</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>2.4</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -750,7 +752,9 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>2.4</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -758,509 +762,167 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>4.8</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>The question was a casual greeting with no in-depth probe into any jobs to be done or related insights.; The answer provided a glimpse into the persona's job and a slight indication of customer focus.</t>
+          <t>The Persona reveals his/her job related to ensuring guest satisfaction and operational efficiency in hotel industry; The Persona's engaging demeanor projects openness and attentive customer service</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Friendly and polite interaction.; Persona maintained a professional approach despite the casual nature of the question.</t>
+          <t>Excellent personal rapport management by the Persona; Good engagement strategy from the Persona's side</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Ask more substantial, open-ended questions targeting specific JTBD areas.; Incorporate progress-making forces into the conversation to understand struggles and goals.</t>
+          <t>More probing, job-related questions needed from the User; Question lacks depth regarding the target's daily tasks and responsibilities</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>What are the main challenges you face in delivering quality flights at competitive prices?; Can you describe a situation where you were particularly proud of the service SkyRegional Airlines delivered to a customer?</t>
+          <t>Can you elaborate on your typical day ensuring guest satisfaction and operational efficiency?; What are some of the struggles you face in your job?; What progress are you aiming to make in your job?</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45649.98907521434</v>
+        <v>45654.83844796214</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.8</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>3.2</v>
+        <v>0.45</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.8</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>3.2</v>
+        <v>0.45</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5.6</v>
-      </c>
+        <v>7.349999999999999</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
+        <v>4.199999999999999</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>6.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AQ3" t="n">
-        <v>40.25</v>
+        <v>11.55</v>
       </c>
       <c r="AR3" t="n">
-        <v>38</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AS3" t="n">
-        <v>78.25</v>
+        <v>12.45</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>The company failed to recognize the loyalty of a regular customer early enough, leading to the customer switch.; The lost customer was a trigger to review and update their loyalty programs.; The incident resulted in a strategic realignment towards better customer recognition and service.</t>
+          <t>The Operations Director has been with Urban Hotels Group for 8 years.; The interviewee emphasizes the importance of providing a superior guest experience.</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Interviewee provided a detailed, transparent, and insightful response.; The use of clear narrative structure, with a focus on tangible specifics.; Appropriate use of emotional engagement in the answer for comprehensive understanding.</t>
+          <t>The interviewee expressed his response well with confidence as a sign of expertise.; The question was well-framed and straightforward, offering clear data.</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Could have provided a more in-depth understanding of the customer's job-to-be-done.; Understanding more about the competitor's offering would help.; Insights about the financial impact of the lost customer would be useful.</t>
+          <t>The question could have been deepened to unearth particular insights about the persona's job.; The response was more about the persona's attitude and lacked specific details about their job-to-be-done.</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>What specific changes were made to the loyalty programs after losing the customer?; Can you share more details about what made the competitor’s loyalty package more 'enticing'?; Have you ever lost a customer under similar circumstances before?</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45649.98964407006</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>4.455</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.305</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13.365</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13.125</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9.914999999999999</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>5.859999999999999</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>35.915</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>77.845</v>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>SkyRegional Airlines places a high value on simplicity, cost-effectiveness, and quality of service, which are the main factors customers consider when choosing their airline over larger carriers.; The airline's strategy focuses on a regional market with direct routes and no complex transfers, competitive transparent pricing, and a high level of customer service.</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>The interviewer asks an excellent, open-ended question that allows the interviewee to expound upon the factors that make their airline unique.; The persona's answer gives a comprehensive overview of factors driving customer choice, distributing critical insights about the value proposition and customer preferences.</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>The interviewer could have probed deeper to understand more about the specifics of their customer service, and what 'going the extra mile' actually means.; The persona's response could have included specific examples or stories to illustrate their points, thereby providing more context.</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Could you share a specific example where your team went the 'extra mile' to serve a customer?; How do you ensure simplicity in your airline services, especially when dealing with issues such as delays or cancellations?</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45649.99014811116</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>3.516666666666667</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.906666666666667</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3.253333333333333</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>4.583333333333333</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>7.813333333333333</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>9.760000000000002</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.166666666666666</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7.039999999999999</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>39.77333333333333</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>36.01666666666667</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>75.78999999999999</v>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>The new route introduced was initially frustrating for customers due to inconvenient departure and arrival times.; The situation led to an erosion of trust, highlighting a need for more customer-centric decision making.; The company collected customer feedback and adjusted the flight times, improving the problem.; Improved social media response time was put in place to ensure better communication with customers.</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>The question was open-ended, specific, and encouraged a detailed response.; The persona gave a complete and thematic answer with examples.; They did a good job of explaining a process to rectify the situation, showing a clear grasp of progress forces.; The interview was well-managed with excellent flow and rapport building.</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>More emphasis on the 'jobs to be done' would be useful.; Efforts to minimize customer anxieties could have been highlighted more.</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>What were some of the key themes from the customer survey?; How was the change in schedule communicated to the customers?; What is the impact of these changes on customer satisfaction now?; What measures have been put in place to ensure such mishaps don't recur in the future?</t>
+          <t>Could you elaborate on some changes that you've implemented in your duration?; What would you say are some of the biggest achievements in your position over the past 8 years?</t>
         </is>
       </c>
     </row>

--- a/evaluation_debug.xlsx
+++ b/evaluation_debug.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,243 +686,122 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45654.8375134771</v>
+        <v>45656.97892751805</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
-        <v>4.8</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>4.8</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.8</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>The Persona reveals his/her job related to ensuring guest satisfaction and operational efficiency in hotel industry; The Persona's engaging demeanor projects openness and attentive customer service</t>
+          <t>The opening question was basic, expecting a polite response without eliciting direct job-to-be-done information.</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Excellent personal rapport management by the Persona; Good engagement strategy from the Persona's side</t>
+          <t>The persona maintained a pleasant demeanor helping to create rapport.; The response was professionally tailored to his work context.</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>More probing, job-related questions needed from the User; Question lacks depth regarding the target's daily tasks and responsibilities</t>
+          <t>The initial question could be more specific or purposive to inquire about the personas's work or experience.</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Can you elaborate on your typical day ensuring guest satisfaction and operational efficiency?; What are some of the struggles you face in your job?; What progress are you aiming to make in your job?</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45654.83844796214</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7.349999999999999</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>4.199999999999999</v>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>The Operations Director has been with Urban Hotels Group for 8 years.; The interviewee emphasizes the importance of providing a superior guest experience.</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>The interviewee expressed his response well with confidence as a sign of expertise.; The question was well-framed and straightforward, offering clear data.</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>The question could have been deepened to unearth particular insights about the persona's job.; The response was more about the persona's attitude and lacked specific details about their job-to-be-done.</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Could you elaborate on some changes that you've implemented in your duration?; What would you say are some of the biggest achievements in your position over the past 8 years?</t>
+          <t>Can you tell me about a recent challenge in digital banking?; What aspects of risk management are you currently focusing on?</t>
         </is>
       </c>
     </row>

--- a/evaluation_debug.xlsx
+++ b/evaluation_debug.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,122 +686,750 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45656.97892751805</v>
+        <v>45657.74458913447</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
-        <v>5.600000000000001</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>8.600000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.600000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>The opening question was basic, expecting a polite response without eliciting direct job-to-be-done information.</t>
+          <t>The persona is deeply involved in their responsibilities at SkyRegional.</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>The persona maintained a pleasant demeanor helping to create rapport.; The response was professionally tailored to his work context.</t>
+          <t>The introduction sparks a jovial rapport, allowing for a pleasant atmosphere during the interview.</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>The initial question could be more specific or purposive to inquire about the personas's work or experience.</t>
+          <t>The initial question lacked depth and direction. It should hold relevance to the tasks and struggles of the persona.; The interviewer needs to dig deeper into the persona's problems, anxieties and push/pull forces.</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Can you tell me about a recent challenge in digital banking?; What aspects of risk management are you currently focusing on?</t>
+          <t>What challenges have you encountered while managing costs and optimizing routes at SkyRegional?; Can you share a specific instance where you had to push boundaries to meet customer expectations?; Can you tell about any particular habits you have cultivated to deal with pressure?</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45657.74646626314</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>The persona has firsthand experience in losing a regular customer.; Undergone a setback due to a change in flight schedules that was initiated for safety reasons.; The team made efforts to retain the customer by providing with alternative options and complimentary services.; Post this experience, the team refined their communication protocols and scheduling strategy for customer convenience.; The persona is deeply involved in their responsibilities at SkyRegional.</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>The interviewer uses a clear and precise kick-off question that motivates the persona to share a vivid story.; The persona’s response gives a good understanding of struggle for progress.; The question and answer, collectively, gives valuable insights about market opportunity, customer segmentation and strategic positioning.; The introduction sparks a jovial rapport, allowing for a pleasant atmosphere during the interview.</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>The question could have been followed up with probe into alternative solutions, how other stakeholders reacted, or a deep-dive into the emotional toll it took.; The interviewer could have enquired how the findings were acted upon to rectify or avoid a similar situation in the future.; The initial question lacked depth and direction. It should hold relevance to the tasks and struggles of the persona.; The interviewer needs to dig deeper into the persona's problems, anxieties and push/pull forces.</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Can you elaborate on the changes you made to your communication protocols post this experience?; How did your team react when the customer decided to switch?; Did this experience create a cascade of changes in any other function of your organisation?; What specific factors do you now consider for scheduling flights to suit the customer convenience while maintaining operational efficiency?; What challenges have you encountered while managing costs and optimizing routes at SkyRegional?; Can you share a specific instance where you had to push boundaries to meet customer expectations?; Can you tell about any particular habits you have cultivated to deal with pressure?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45657.74784813327</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.549999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7.099999999999999</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>The persona conveys a crystal-clear distinction between SkyRegional Airlines and their larger competitors.; SkyRegional focusses on cost management and serves specific regional destinations with a high-quality, personalized customer service.; The airplane carrier operates with a customer-centric approach and values its passengers as individuals with unique needs and expectations.; SkyRegional's operation is concentrated to geographically confined region, which makes travel planning quicker and efficient.; The persona has firsthand experience in losing a regular customer.; Undergone a setback due to a change in flight schedules that was initiated for safety reasons.; The team made efforts to retain the customer by providing with alternative options and complimentary services.; Post this experience, the team refined their communication protocols and scheduling strategy for customer convenience.; The persona is deeply involved in their responsibilities at SkyRegional.</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>The user's question is well-structured and directly aligns with the JTBD framework, provoking the persona to describe what job their customers hire them to perform.; The persona effectively communicates the unique selling propositions of SkyRegional Airlines.; Highlights successful adaptation to the competition in the airline industry, revealing valuable strategic insights.; The user and the persona manage the interview effectively maintaining a good flow and rapport.; The interviewer uses a clear and precise kick-off question that motivates the persona to share a vivid story.; The persona’s response gives a good understanding of struggle for progress.; The question and answer, collectively, gives valuable insights about market opportunity, customer segmentation and strategic positioning.; The introduction sparks a jovial rapport, allowing for a pleasant atmosphere during the interview.</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>The user could have probed deeper into specific incidents or anecdotes to better understand how they offer personalized service or manage cost.; The user could have inquired about how the needs and expectations of their customers have changed over time, and how they have adapted to meet those changing needs.; The persona could have provided some details transcribing the struggle for progress their clientele faces and how SkyRegional helps mitigate it.; The question could have been followed up with probe into alternative solutions, how other stakeholders reacted, or a deep-dive into the emotional toll it took.; The interviewer could have enquired how the findings were acted upon to rectify or avoid a similar situation in the future.; The initial question lacked depth and direction. It should hold relevance to the tasks and struggles of the persona.; The interviewer needs to dig deeper into the persona's problems, anxieties and push/pull forces.</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Could you share an instance where SkyRegional Airlines had to adapt or innovate to meet unique passenger needs?; What have been the most impactful cost management strategies in offering affordable fares?; How do you ensure consistent performance in delivering top-notch service?; Can you share an example of a situation that challenged your regional operation model?; Can you elaborate on the changes you made to your communication protocols post this experience?; How did your team react when the customer decided to switch?; Did this experience create a cascade of changes in any other function of your organisation?; What specific factors do you now consider for scheduling flights to suit the customer convenience while maintaining operational efficiency?; What challenges have you encountered while managing costs and optimizing routes at SkyRegional?; Can you share a specific instance where you had to push boundaries to meet customer expectations?</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45657.74891448999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.533333333333334</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.183333333333334</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.033333333333333</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.366666666666666</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7.066666666666668</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>35.76666666666667</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>38.18333333333334</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>73.95</v>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>The persona has faced severe customer complaints and criticisms due to communication gaps during challenging weather conditions.; The customer complaints directly concerned flight delays, unclear communication, and poor experience during long waits.; The company took the opportunity for improving their passenger communication system and enhanced their customer service at airports.; The airline aims to provide excellent customer service along with focusing on cost management and route optimization.; The persona conveys a crystal-clear distinction between SkyRegional Airlines and their larger competitors.; SkyRegional focusses on cost management and serves specific regional destinations with a high-quality, personalized customer service.; The airplane carrier operates with a customer-centric approach and values its passengers as individuals with unique needs and expectations.; SkyRegional's operation is concentrated to geographically confined region, which makes travel planning quicker and efficient.; The persona has firsthand experience in losing a regular customer.; Undergone a setback due to a change in flight schedules that was initiated for safety reasons.</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>The user's question was clear and motivated the persona to share a vivid experience of struggle.; The persona provided detailed and insightful information about their problem revolving around customer frustration.; The user successfully prompted the persona to elaborate upon the actions they took to improve the situation.; The interview flow was maintained successfully by both the user and the persona.; The user's question is well-structured and directly aligns with the JTBD framework, provoking the persona to describe what job their customers hire them to perform.; The persona effectively communicates the unique selling propositions of SkyRegional Airlines.; Highlights successful adaptation to the competition in the airline industry, revealing valuable strategic insights.; The user and the persona manage the interview effectively maintaining a good flow and rapport.; The interviewer uses a clear and precise kick-off question that motivates the persona to share a vivid story.; The persona’s response gives a good understanding of struggle for progress.</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>The user could have probed deeper about the customer's frustrations and their exact expectations from the airline.; More questions on 'before' and 'after' situation could have helped to understand the impact of the changes they made.; The user could have asked how this incidence has shaped their future approach towards managing unexpected situations.; The interviewer can ask more probing questions to help the persona expand on what was learned and how they are applying the learnings.; More focus can be given on discussing the persona's anxieties and habits as a response to the customers' struggles.; The user could have probed deeper into specific incidents or anecdotes to better understand how they offer personalized service or manage cost.; The user could have inquired about how the needs and expectations of their customers have changed over time, and how they have adapted to meet those changing needs.; The persona could have provided some details transcribing the struggle for progress their clientele faces and how SkyRegional helps mitigate it.; The question could have been followed up with probe into alternative solutions, how other stakeholders reacted, or a deep-dive into the emotional toll it took.; The interviewer could have enquired how the findings were acted upon to rectify or avoid a similar situation in the future.</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Could you elaborate more on the issue with the communication? What were the customers' exact complaints?; Did you receive any positive feedback from customers after implementing the changes in the communication system and customer service?; How has this experience changed your approach towards managing unforeseen events like harsh winters?; What other improvements are you considering to further enhance customer experience?; What part of your action plan was most challenging to implement and why?; Did this incident have any major impacts on your service strategy or your overall business strategy?; Could you share an instance where SkyRegional Airlines had to adapt or innovate to meet unique passenger needs?; What have been the most impactful cost management strategies in offering affordable fares?; How do you ensure consistent performance in delivering top-notch service?; Can you share an example of a situation that challenged your regional operation model?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45657.75475521194</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.3875</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12.375</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.550000000000001</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>10.1625</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>37.38500000000001</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>39.2625</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>76.64750000000001</v>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>The most significant customer complaints are related to inaccurate or tardy flight status updates and poor customer service hotline experience.; The persona shows clear understanding of the passenger perspective and demonstrates empathy towards customers.; The persona accepts responsibility for the issues and already has a plan in place to deal with them.; The two main areas of focus for improving communication are enhancing the mobile app for live tracking and real-time notifications and improving customer service hotline by training staff.; The persona has faced severe customer complaints and criticisms due to communication gaps during challenging weather conditions.; The customer complaints directly concerned flight delays, unclear communication, and poor experience during long waits.; The company took the opportunity for improving their passenger communication system and enhanced their customer service at airports.; The airline aims to provide excellent customer service along with focusing on cost management and route optimization.; The persona conveys a crystal-clear distinction between SkyRegional Airlines and their larger competitors.; SkyRegional focusses on cost management and serves specific regional destinations with a high-quality, personalized customer service.</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>The question was open-ended, encouraging the interviewee to fully elaborate on the problem.; The persona was detailed and descriptive in their explanation.; Good flow of the conversation, with effective time management from the user and the persona.; Both the persona and interviewer showed an understanding of the JTBD framework, with the persona clearly communicating the 'job' their customers hire them to perform.; The user's question was clear and motivated the persona to share a vivid experience of struggle.; The persona provided detailed and insightful information about their problem revolving around customer frustration.; The user successfully prompted the persona to elaborate upon the actions they took to improve the situation.; The interview flow was maintained successfully by both the user and the persona.; The user's question is well-structured and directly aligns with the JTBD framework, provoking the persona to describe what job their customers hire them to perform.; The persona effectively communicates the unique selling propositions of SkyRegional Airlines.</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>The interviewer could have probed further into the specific issues faced by the hotline agents that made them unable to solve the problems.; Insufficient information provided about how exactly they are improving the mobile app and the hotline service, more specific questions can be asked in this context.; The user could have asked for quantitative data, like the percentage of complaints related to each issue or how many customers have been affected.; A more in-depth exploration of the implications for customers from these communication gaps could have been pursued.; The user could have probed deeper about the customer's frustrations and their exact expectations from the airline.; More questions on 'before' and 'after' situation could have helped to understand the impact of the changes they made.; The user could have asked how this incidence has shaped their future approach towards managing unexpected situations.; The interviewer can ask more probing questions to help the persona expand on what was learned and how they are applying the learnings.; More focus can be given on discussing the persona's anxieties and habits as a response to the customers' struggles.; The user could have probed deeper into specific incidents or anecdotes to better understand how they offer personalized service or manage cost.</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Could you share an example of the kind of training you are providing to your staff for improving the hotline experience?; How are you planning to measure the success of these initiatives?; What were the biggest challenges in implementing these improvements?; Could you elaborate on why accurate and timely communications are crucial for your customers?; Could you elaborate more on the issue with the communication? What were the customers' exact complaints?; Did you receive any positive feedback from customers after implementing the changes in the communication system and customer service?; How has this experience changed your approach towards managing unforeseen events like harsh winters?; What other improvements are you considering to further enhance customer experience?; What part of your action plan was most challenging to implement and why?; Did this incident have any major impacts on your service strategy or your overall business strategy?</t>
         </is>
       </c>
     </row>
